--- a/Отчет о тестировании.xlsx
+++ b/Отчет о тестировании.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет о тестировании" sheetId="2" r:id="rId1"/>
+    <sheet name="Баг-репорт" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
   <si>
     <t>Идентификатор тест-кейса</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Низкая</t>
   </si>
   <si>
-    <t>Пользователь не может войти в аккаунт: при нажатии на кнопку "my account" перенаправление на страницу с ошибкой</t>
-  </si>
-  <si>
     <t>Нажатие на повкладку "Insurance" приводит к переадресации на страницу с ошибкой</t>
   </si>
   <si>
@@ -188,10 +186,118 @@
     <t>При нажатии на ссылку внизу страницы происходит перенаправление на страницу https://www.sravni.ru/</t>
   </si>
   <si>
-    <t>При нажатии кнопки на верхнюю ссылку страница не перезагружается, меняется url</t>
-  </si>
-  <si>
     <t>Язык не фиксируется при перезагрузке страницы</t>
+  </si>
+  <si>
+    <t>Название проверки</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>26 Тест</t>
+  </si>
+  <si>
+    <t>27 Тест</t>
+  </si>
+  <si>
+    <t>Отображается сообщение об ошибке при указании почты без специального знака "@"</t>
+  </si>
+  <si>
+    <t>Отображается сообщение об ошибке при указании почты без знака "."</t>
+  </si>
+  <si>
+    <t>28 Тест</t>
+  </si>
+  <si>
+    <t>При корректном вводе появляестя окно с текстом "Successfully send"</t>
+  </si>
+  <si>
+    <t>Отрицательно</t>
+  </si>
+  <si>
+    <t>Положительно</t>
+  </si>
+  <si>
+    <t>При нажатиина верхнее лого страница не перезагружается, меняется url</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку "my account" перенаправление на страницу с ошибкой</t>
+  </si>
+  <si>
+    <t>Пользователь не может зайти на страницу с аккаунтом</t>
+  </si>
+  <si>
+    <t>Кнопка "Get Started" нажимается и переадресует на другую страницу</t>
+  </si>
+  <si>
+    <t>Нажатие на лого приводит к перезаргрузке страницы</t>
+  </si>
+  <si>
+    <t>Происходит переадресация при нажатии "Insurance"</t>
+  </si>
+  <si>
+    <t>Происходит переадресация при нажатии"Calculate price"</t>
+  </si>
+  <si>
+    <t>Пагинация работает корректно</t>
+  </si>
+  <si>
+    <t>Происходит переадресация при нажатии "Choose insurance"</t>
+  </si>
+  <si>
+    <t>Происходит переадресация при нажатии "Car insuranse"</t>
+  </si>
+  <si>
+    <t>Происходит переадресация при нажатии "Blog"</t>
+  </si>
+  <si>
+    <t>При клике на нижнюю повкладку "About us" происходит перенаправление на соответствующую страницу</t>
+  </si>
+  <si>
+    <t>Нажимая на нижнюю повкладку "Privacy", происходит перенаправление на соответствующую страницу</t>
+  </si>
+  <si>
+    <t>Переадресация на страницу инстаграма</t>
+  </si>
+  <si>
+    <t>Язык изменяется, вся информация написана на другом языке</t>
+  </si>
+  <si>
+    <t>Нажатие на нижнюю повкладку "Rewiev" приводит к переадресации на нужную страницу</t>
+  </si>
+  <si>
+    <t>Происходит переадресация при нажатии "Сontact us"</t>
+  </si>
+  <si>
+    <t>Нажатие на нижнюю повкладку "Home insurance" приводит к переадресации на страницу</t>
+  </si>
+  <si>
+    <t>Нажимая на нижнюю повкладку "Travel insurance", происходит перенаправление на соответствующую страницу</t>
+  </si>
+  <si>
+    <t>Нажатие на повкладку "Pet Insurance" приводит к переадресации на страницу</t>
+  </si>
+  <si>
+    <t>Ссылка на главную страницу написана корректно</t>
+  </si>
+  <si>
+    <t>При клике на кнопку "Cookies" происходит перенаправление на страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии на ссылку внизу страницы, осуществляется скроллинг наверх </t>
+  </si>
+  <si>
+    <t>Переадресация на страницу твиттера</t>
+  </si>
+  <si>
+    <t>Переадресация на страницу фейсбука</t>
+  </si>
+  <si>
+    <t>Переадресация на страницу телеграма</t>
+  </si>
+  <si>
+    <t>При обновлении страницы, выбранный язык фиксируется</t>
   </si>
 </sst>
 </file>
@@ -216,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,11 +330,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -238,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4156,10 +4274,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,22 +4710,23 @@
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4193,21 +4737,21 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -4215,10 +4759,10 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -4226,10 +4770,10 @@
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -4237,32 +4781,32 @@
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -4270,10 +4814,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -4281,10 +4825,10 @@
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -4292,10 +4836,10 @@
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -4303,21 +4847,21 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -4325,10 +4869,10 @@
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -4336,10 +4880,10 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -4347,10 +4891,10 @@
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -4358,10 +4902,10 @@
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -4369,10 +4913,10 @@
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -4380,79 +4924,79 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
